--- a/Excels/DataTable/DataTable.xlsx
+++ b/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="7"/>
+    <workbookView windowHeight="17655" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="UIForm" sheetId="5" r:id="rId5"/>
     <sheet name="UIGroup" sheetId="6" r:id="rId6"/>
     <sheet name="UISound" sheetId="7" r:id="rId7"/>
-    <sheet name="NetworkChannel" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -169,36 +168,6 @@
   </si>
   <si>
     <t>界面声音编号</t>
-  </si>
-  <si>
-    <t>网络频道配置表</t>
-  </si>
-  <si>
-    <t>ChannelName</t>
-  </si>
-  <si>
-    <t>IPAddress</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>网络频道编号</t>
-  </si>
-  <si>
-    <t>网络频道名称</t>
-  </si>
-  <si>
-    <t>IP地址</t>
-  </si>
-  <si>
-    <t>端口号</t>
-  </si>
-  <si>
-    <t>Geek</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1595,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
@@ -1703,104 +1672,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
-  <cols>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="35.875" customWidth="1"/>
-    <col min="6" max="6" width="61.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5">
-        <v>8899</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Excels/DataTable/DataTable.xlsx
+++ b/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="6"/>
+    <workbookView windowHeight="17655" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="UIForm" sheetId="5" r:id="rId5"/>
     <sheet name="UIGroup" sheetId="6" r:id="rId6"/>
     <sheet name="UISound" sheetId="7" r:id="rId7"/>
+    <sheet name="ArchiveSlot" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -168,6 +169,24 @@
   </si>
   <si>
     <t>界面声音编号</t>
+  </si>
+  <si>
+    <t>存档Slot配置表</t>
+  </si>
+  <si>
+    <t>SlotName</t>
+  </si>
+  <si>
+    <t>Slot编号</t>
+  </si>
+  <si>
+    <t>Slot名称</t>
+  </si>
+  <si>
+    <t>Slot0</t>
+  </si>
+  <si>
+    <t>Slot1</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1539,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="F7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1595,7 +1614,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
@@ -1672,4 +1691,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Excels/DataTable/DataTable.xlsx
+++ b/Excels/DataTable/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="7"/>
+    <workbookView windowHeight="17655" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="UIForm" sheetId="5" r:id="rId5"/>
     <sheet name="UIGroup" sheetId="6" r:id="rId6"/>
     <sheet name="UISound" sheetId="7" r:id="rId7"/>
-    <sheet name="ArchiveSlot" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -169,24 +168,6 @@
   </si>
   <si>
     <t>界面声音编号</t>
-  </si>
-  <si>
-    <t>存档Slot配置表</t>
-  </si>
-  <si>
-    <t>SlotName</t>
-  </si>
-  <si>
-    <t>Slot编号</t>
-  </si>
-  <si>
-    <t>Slot名称</t>
-  </si>
-  <si>
-    <t>Slot0</t>
-  </si>
-  <si>
-    <t>Slot1</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1595,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
@@ -1691,86 +1672,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>